--- a/content/drafts/entitats/Codis_Territori_TipusVia.xlsx
+++ b/content/drafts/entitats/Codis_Territori_TipusVia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\05.OIAD_Paquet_02\06.Tipus_Via\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/06.Tipus_Via/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B87A57-0086-4104-92D1-4BCAB94B3BD0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{14B87A57-0086-4104-92D1-4BCAB94B3BD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4621ACDB-CFA1-4787-A09B-275AF10A1921}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-1152" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipus_Via" sheetId="1" r:id="rId1"/>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="275">
   <si>
     <t>Codi</t>
   </si>
   <si>
-    <t xml:space="preserve">Nom de la taula: </t>
-  </si>
-  <si>
     <t>acc.</t>
   </si>
   <si>
@@ -847,6 +844,18 @@
   </si>
   <si>
     <t>bloc</t>
+  </si>
+  <si>
+    <t>Eix</t>
+  </si>
+  <si>
+    <t>eix</t>
+  </si>
+  <si>
+    <t>091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom Entitat: </t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1091,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:C95" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:C96" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codi" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{65C98C64-1DBA-422B-AC39-85564CE213DF}" name="Nom" dataDxfId="1"/>
@@ -1355,7 +1364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1369,10 +1378,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1380,1022 +1389,1033 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>264</v>
+        <v>273</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>271</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B95" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>267</v>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2403,7 +2423,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B96:B947 A4:A48 A94:A95 A49:A93" numberStoredAsText="1"/>
+    <ignoredError sqref="B97:B948 A4:A48 A95:A96 A49:A93 A94:C94" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -2412,12 +2432,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2553,26 +2573,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2596,9 +2608,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>